--- a/Code/inae_PK_2022.11.23.xlsx
+++ b/Code/inae_PK_2022.11.23.xlsx
@@ -14,7 +14,6 @@
   <sheets>
     <sheet name="NCA table" sheetId="1" r:id="rId1"/>
     <sheet name="인애(RTIME)" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="62">
   <si>
     <t>Period</t>
   </si>
@@ -1213,11 +1212,19 @@
       <t xml:space="preserve"> met&gt;</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> ± </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1484,7 +1491,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1532,19 +1539,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1554,11 +1555,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1581,13 +1594,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>49363</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>159951</xdr:rowOff>
@@ -1625,13 +1638,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>49138</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>72302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>361347</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>140165</xdr:rowOff>
@@ -1669,13 +1682,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>144132</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>92321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>100122</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>6996</xdr:rowOff>
@@ -1713,13 +1726,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>60770</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>54909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>184223</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1757,13 +1770,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>170635</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>57710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>365521</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>149576</xdr:rowOff>
@@ -2518,32 +2531,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="Q2" sqref="Q2:V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="4.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2571,32 +2585,32 @@
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="U2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V2" s="26"/>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="30">
         <v>172.57</v>
       </c>
       <c r="D3" s="2">
@@ -2611,33 +2625,33 @@
       <c r="G3" s="2">
         <v>270.12</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="30">
         <v>168.48</v>
       </c>
       <c r="I3" s="2">
         <v>23.09</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="Q3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="R3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="10">
+      <c r="T3" s="10">
         <v>1.0303</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="20"/>
+      <c r="W3" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2665,23 +2679,23 @@
       <c r="I4" s="2">
         <v>57.89</v>
       </c>
-      <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="21"/>
+      <c r="S4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="10">
+      <c r="T4" s="10">
         <v>0.97740000000000005</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="U4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="20"/>
+      <c r="W4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2709,27 +2723,27 @@
       <c r="I5" s="2">
         <v>22.07</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="Q5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="R5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="S5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10">
         <v>0.95140000000000002</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="U5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="20"/>
+      <c r="W5" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2757,23 +2771,23 @@
       <c r="I6" s="2">
         <v>22.12</v>
       </c>
-      <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="21"/>
+      <c r="S6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="11">
+      <c r="T6" s="11">
         <v>0.9556</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="U6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="20"/>
+      <c r="W6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2801,25 +2815,25 @@
       <c r="I7" s="2">
         <v>21.2</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="21"/>
+      <c r="R7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="S7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>0.76419999999999999</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="U7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="22"/>
+      <c r="W7" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2847,23 +2861,23 @@
       <c r="I8" s="2">
         <v>19.850000000000001</v>
       </c>
-      <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="21"/>
+      <c r="S8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="12">
+      <c r="T8" s="12">
         <v>0.65310000000000001</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="U8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="7" t="s">
+      <c r="V8" s="22"/>
+      <c r="W8" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2891,27 +2905,27 @@
       <c r="I9" s="2">
         <v>31.65</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="Q9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="R9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="11">
+      <c r="T9" s="11">
         <v>1.1204000000000001</v>
       </c>
-      <c r="T9" s="19" t="s">
+      <c r="U9" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="19"/>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="27"/>
+      <c r="W9" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -2939,30 +2953,30 @@
       <c r="I10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="21"/>
+      <c r="S10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="11">
+      <c r="T10" s="11">
         <v>1.0733999999999999</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="U10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="U10" s="20"/>
-      <c r="V10" s="6" t="s">
+      <c r="V10" s="20"/>
+      <c r="W10" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="30">
         <v>164.56</v>
       </c>
       <c r="D11" s="2">
@@ -2977,31 +2991,31 @@
       <c r="G11" s="2">
         <v>209.21</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="30">
         <v>161</v>
       </c>
       <c r="I11" s="2">
         <v>19.940000000000001</v>
       </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="20" t="s">
+      <c r="Q11" s="21"/>
+      <c r="R11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="S11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="11">
+      <c r="T11" s="11">
         <v>0.98319999999999996</v>
       </c>
-      <c r="T11" s="20" t="s">
+      <c r="U11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="U11" s="20"/>
-      <c r="V11" s="6" t="s">
+      <c r="V11" s="20"/>
+      <c r="W11" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -3029,28 +3043,28 @@
       <c r="I12" s="2">
         <v>50.65</v>
       </c>
-      <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="21"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="21"/>
-      <c r="R12" s="10" t="s">
+      <c r="R12" s="21"/>
+      <c r="S12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="11">
+      <c r="T12" s="11">
         <v>1.0274000000000001</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="U12" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="U12" s="20"/>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="20"/>
+      <c r="W12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -3079,7 +3093,7 @@
         <v>26.63</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -3108,7 +3122,7 @@
         <v>19.53</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -3137,7 +3151,7 @@
         <v>18.52</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -3166,7 +3180,7 @@
         <v>18.28</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -3195,31 +3209,31 @@
         <v>36.25</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="K19" s="25" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="L19" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3247,42 +3261,42 @@
       <c r="I20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="30">
         <v>995.32</v>
       </c>
       <c r="D21" s="2">
@@ -3297,41 +3311,44 @@
       <c r="G21" s="2">
         <v>1489.96</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="30">
         <v>957.21</v>
       </c>
       <c r="I21" s="2">
         <v>28.78</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="30">
         <v>720.11</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <v>216.23</v>
       </c>
-      <c r="O21" s="2">
+      <c r="P21" s="2">
         <v>657.04</v>
       </c>
-      <c r="P21" s="2">
+      <c r="Q21" s="2">
         <v>420.47</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="R21" s="2">
         <v>1233.72</v>
       </c>
-      <c r="R21" s="2">
+      <c r="S21" s="30">
         <v>691.49</v>
       </c>
-      <c r="S21" s="2">
+      <c r="T21" s="2">
         <v>30.03</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -3359,35 +3376,35 @@
       <c r="I22" s="2">
         <v>32.31</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <v>3.45</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <v>1.07</v>
       </c>
-      <c r="O22" s="2">
+      <c r="P22" s="2">
         <v>4</v>
       </c>
-      <c r="P22" s="2">
+      <c r="Q22" s="2">
         <v>1</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="R22" s="2">
         <v>6</v>
       </c>
-      <c r="R22" s="2">
+      <c r="S22" s="2">
         <v>3.25</v>
       </c>
-      <c r="S22" s="2">
+      <c r="T22" s="2">
         <v>31.01</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -3415,35 +3432,35 @@
       <c r="I23" s="2">
         <v>38.340000000000003</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="2">
         <v>7.01</v>
       </c>
-      <c r="N23" s="2">
+      <c r="O23" s="2">
         <v>2.99</v>
       </c>
-      <c r="O23" s="2">
+      <c r="P23" s="2">
         <v>6.27</v>
       </c>
-      <c r="P23" s="2">
+      <c r="Q23" s="2">
         <v>2.98</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="R23" s="2">
         <v>13.25</v>
       </c>
-      <c r="R23" s="2">
+      <c r="S23" s="2">
         <v>6.42</v>
       </c>
-      <c r="S23" s="2">
+      <c r="T23" s="2">
         <v>42.65</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -3471,35 +3488,35 @@
       <c r="I24" s="2">
         <v>32.4</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="2">
         <v>5206.6000000000004</v>
       </c>
-      <c r="N24" s="2">
+      <c r="O24" s="2">
         <v>1995.82</v>
       </c>
-      <c r="O24" s="2">
+      <c r="P24" s="2">
         <v>4604.5</v>
       </c>
-      <c r="P24" s="2">
+      <c r="Q24" s="2">
         <v>2718.62</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="R24" s="2">
         <v>11391.76</v>
       </c>
-      <c r="R24" s="2">
+      <c r="S24" s="2">
         <v>4913.1000000000004</v>
       </c>
-      <c r="S24" s="2">
+      <c r="T24" s="2">
         <v>38.33</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -3527,35 +3544,35 @@
       <c r="I25" s="2">
         <v>31.55</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="2">
         <v>5400.73</v>
       </c>
-      <c r="N25" s="2">
+      <c r="O25" s="2">
         <v>2003.36</v>
       </c>
-      <c r="O25" s="2">
+      <c r="P25" s="2">
         <v>4748.57</v>
       </c>
-      <c r="P25" s="2">
+      <c r="Q25" s="2">
         <v>3052.77</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="R25" s="2">
         <v>11542.87</v>
       </c>
-      <c r="R25" s="2">
+      <c r="S25" s="2">
         <v>5118.29</v>
       </c>
-      <c r="S25" s="2">
+      <c r="T25" s="2">
         <v>37.090000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -3583,35 +3600,35 @@
       <c r="I26" s="2">
         <v>28.19</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <v>204.51</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <v>59.71</v>
       </c>
-      <c r="O26" s="2">
+      <c r="P26" s="2">
         <v>210.59</v>
       </c>
-      <c r="P26" s="2">
+      <c r="Q26" s="2">
         <v>86.63</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="R26" s="2">
         <v>327.57</v>
       </c>
-      <c r="R26" s="2">
+      <c r="S26" s="2">
         <v>195.38</v>
       </c>
-      <c r="S26" s="2">
+      <c r="T26" s="2">
         <v>29.2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -3639,35 +3656,35 @@
       <c r="I27" s="2">
         <v>50.08</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="2">
         <v>2128.34</v>
       </c>
-      <c r="N27" s="2">
+      <c r="O27" s="2">
         <v>1305.8800000000001</v>
       </c>
-      <c r="O27" s="2">
+      <c r="P27" s="2">
         <v>1748.58</v>
       </c>
-      <c r="P27" s="2">
+      <c r="Q27" s="2">
         <v>607.45000000000005</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="R27" s="2">
         <v>6261.46</v>
       </c>
-      <c r="R27" s="2">
+      <c r="S27" s="2">
         <v>1808.5</v>
       </c>
-      <c r="S27" s="2">
+      <c r="T27" s="2">
         <v>61.36</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -3695,42 +3712,42 @@
       <c r="I28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="30">
         <v>669.68</v>
       </c>
       <c r="D29" s="2">
@@ -3745,41 +3762,41 @@
       <c r="G29" s="2">
         <v>1014.69</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="30">
         <v>625.19000000000005</v>
       </c>
       <c r="I29" s="2">
         <v>32.76</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="2">
+      <c r="N29" s="30">
         <v>741.76</v>
       </c>
-      <c r="N29" s="2">
+      <c r="O29" s="2">
         <v>219.9</v>
       </c>
-      <c r="O29" s="2">
+      <c r="P29" s="2">
         <v>719.39</v>
       </c>
-      <c r="P29" s="2">
+      <c r="Q29" s="2">
         <v>410.89</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="R29" s="2">
         <v>1261.03</v>
       </c>
-      <c r="R29" s="2">
+      <c r="S29" s="30">
         <v>710.46</v>
       </c>
-      <c r="S29" s="2">
+      <c r="T29" s="2">
         <v>29.65</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
@@ -3807,35 +3824,35 @@
       <c r="I30" s="2">
         <v>31.86</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <v>3.24</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O30" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="O30" s="2">
+      <c r="P30" s="2">
         <v>3</v>
       </c>
-      <c r="P30" s="2">
+      <c r="Q30" s="2">
         <v>1</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="R30" s="2">
         <v>6</v>
       </c>
-      <c r="R30" s="2">
+      <c r="S30" s="2">
         <v>3.04</v>
       </c>
-      <c r="S30" s="2">
+      <c r="T30" s="2">
         <v>33.64</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
@@ -3863,35 +3880,35 @@
       <c r="I31" s="2">
         <v>38.15</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="2">
+      <c r="N31" s="2">
         <v>6.66</v>
       </c>
-      <c r="N31" s="2">
+      <c r="O31" s="2">
         <v>1.86</v>
       </c>
-      <c r="O31" s="2">
+      <c r="P31" s="2">
         <v>6.61</v>
       </c>
-      <c r="P31" s="2">
+      <c r="Q31" s="2">
         <v>2.57</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="R31" s="2">
         <v>10.039999999999999</v>
       </c>
-      <c r="R31" s="2">
+      <c r="S31" s="2">
         <v>6.37</v>
       </c>
-      <c r="S31" s="2">
+      <c r="T31" s="2">
         <v>27.93</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3919,35 +3936,35 @@
       <c r="I32" s="2">
         <v>33.770000000000003</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="2">
+      <c r="N32" s="2">
         <v>5153.5600000000004</v>
       </c>
-      <c r="N32" s="2">
+      <c r="O32" s="2">
         <v>2060.2800000000002</v>
       </c>
-      <c r="O32" s="2">
+      <c r="P32" s="2">
         <v>4982.1499999999996</v>
       </c>
-      <c r="P32" s="2">
+      <c r="Q32" s="2">
         <v>2430.5300000000002</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="R32" s="2">
         <v>12039.7</v>
       </c>
-      <c r="R32" s="2">
+      <c r="S32" s="2">
         <v>4830.41</v>
       </c>
-      <c r="S32" s="2">
+      <c r="T32" s="2">
         <v>39.979999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
@@ -3975,35 +3992,35 @@
       <c r="I33" s="2">
         <v>31.17</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M33" s="2">
+      <c r="N33" s="2">
         <v>5317.82</v>
       </c>
-      <c r="N33" s="2">
+      <c r="O33" s="2">
         <v>2058.4</v>
       </c>
-      <c r="O33" s="2">
+      <c r="P33" s="2">
         <v>5101.08</v>
       </c>
-      <c r="P33" s="2">
+      <c r="Q33" s="2">
         <v>2566.84</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="R33" s="2">
         <v>12210.65</v>
       </c>
-      <c r="R33" s="2">
+      <c r="S33" s="2">
         <v>5004.4799999999996</v>
       </c>
-      <c r="S33" s="2">
+      <c r="T33" s="2">
         <v>38.71</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
@@ -4031,35 +4048,35 @@
       <c r="I34" s="2">
         <v>34.79</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="2">
+      <c r="N34" s="2">
         <v>211.38</v>
       </c>
-      <c r="N34" s="2">
+      <c r="O34" s="2">
         <v>72.25</v>
       </c>
-      <c r="O34" s="2">
+      <c r="P34" s="2">
         <v>196.04</v>
       </c>
-      <c r="P34" s="2">
+      <c r="Q34" s="2">
         <v>81.900000000000006</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="R34" s="2">
         <v>389.58</v>
       </c>
-      <c r="R34" s="2">
+      <c r="S34" s="2">
         <v>199.82</v>
       </c>
-      <c r="S34" s="2">
+      <c r="T34" s="2">
         <v>34.18</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
@@ -4087,59 +4104,59 @@
       <c r="I35" s="2">
         <v>66.25</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M35" s="2">
+      <c r="N35" s="2">
         <v>2043.98</v>
       </c>
-      <c r="N35" s="2">
+      <c r="O35" s="2">
         <v>905.07</v>
       </c>
-      <c r="O35" s="2">
+      <c r="P35" s="2">
         <v>2058.7399999999998</v>
       </c>
-      <c r="P35" s="2">
+      <c r="Q35" s="2">
         <v>590.48</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="R35" s="2">
         <v>3989.27</v>
       </c>
-      <c r="R35" s="2">
+      <c r="S35" s="2">
         <v>1837.32</v>
       </c>
-      <c r="S35" s="2">
+      <c r="T35" s="2">
         <v>44.28</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="K38" s="26" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="L38" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
@@ -4168,42 +4185,43 @@
         <v>8</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="2"/>
+      <c r="L39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="T39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="30">
         <v>3950.34</v>
       </c>
       <c r="D40" s="2">
@@ -4218,42 +4236,42 @@
       <c r="G40" s="2">
         <v>6667.79</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="30">
         <v>3776.37</v>
       </c>
       <c r="I40" s="2">
         <v>28.9</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M40" s="2">
+      <c r="N40" s="30">
         <v>3237.19</v>
       </c>
-      <c r="N40" s="2">
+      <c r="O40" s="2">
         <v>1155.5999999999999</v>
       </c>
-      <c r="O40" s="2">
+      <c r="P40" s="2">
         <v>3037.89</v>
       </c>
-      <c r="P40" s="2">
+      <c r="Q40" s="2">
         <v>1520.87</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="R40" s="2">
         <v>5334.44</v>
       </c>
-      <c r="R40" s="2">
+      <c r="S40" s="30">
         <v>3033.7</v>
       </c>
-      <c r="S40" s="2">
+      <c r="T40" s="2">
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
@@ -4266,51 +4284,52 @@
       <c r="D41" s="2">
         <v>0.96</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="31">
         <v>2.02</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="31">
         <v>1</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="31">
         <v>4</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="31">
         <v>2.5499999999999998</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="31">
         <v>35.29</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="2"/>
+      <c r="L41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="2">
+      <c r="N41" s="2">
         <v>3.26</v>
       </c>
-      <c r="N41" s="2">
+      <c r="O41" s="2">
         <v>1.17</v>
       </c>
-      <c r="O41" s="2">
+      <c r="P41" s="2">
         <v>4</v>
       </c>
-      <c r="P41" s="2">
+      <c r="Q41" s="2">
         <v>1</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="R41" s="2">
         <v>5</v>
       </c>
-      <c r="R41" s="2">
+      <c r="S41" s="2">
         <v>3</v>
       </c>
-      <c r="S41" s="2">
+      <c r="T41" s="2">
         <v>35.89</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -4339,35 +4358,36 @@
         <v>16.93</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="2"/>
+      <c r="L42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M42" s="2">
+      <c r="N42" s="2">
         <v>7.37</v>
       </c>
-      <c r="N42" s="2">
+      <c r="O42" s="2">
         <v>1.41</v>
       </c>
-      <c r="O42" s="2">
+      <c r="P42" s="2">
         <v>7.07</v>
       </c>
-      <c r="P42" s="2">
+      <c r="Q42" s="2">
         <v>5.33</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="R42" s="2">
         <v>10.94</v>
       </c>
-      <c r="R42" s="2">
+      <c r="S42" s="2">
         <v>7.25</v>
       </c>
-      <c r="S42" s="2">
+      <c r="T42" s="2">
         <v>19.13</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -4396,35 +4416,36 @@
         <v>30.56</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="2"/>
+      <c r="L43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M43" s="2">
+      <c r="N43" s="2">
         <v>19440.47</v>
       </c>
-      <c r="N43" s="2">
+      <c r="O43" s="2">
         <v>6759.13</v>
       </c>
-      <c r="O43" s="2">
+      <c r="P43" s="2">
         <v>18177.32</v>
       </c>
-      <c r="P43" s="2">
+      <c r="Q43" s="2">
         <v>9521.23</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="R43" s="2">
         <v>30688.32</v>
       </c>
-      <c r="R43" s="2">
+      <c r="S43" s="2">
         <v>18324.71</v>
       </c>
-      <c r="S43" s="2">
+      <c r="T43" s="2">
         <v>34.770000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -4453,35 +4474,36 @@
         <v>28.6</v>
       </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="2"/>
+      <c r="L44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="M44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M44" s="2">
+      <c r="N44" s="2">
         <v>20608.57</v>
       </c>
-      <c r="N44" s="2">
+      <c r="O44" s="2">
         <v>6830.74</v>
       </c>
-      <c r="O44" s="2">
+      <c r="P44" s="2">
         <v>19460.330000000002</v>
       </c>
-      <c r="P44" s="2">
+      <c r="Q44" s="2">
         <v>10295.15</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="R44" s="2">
         <v>32084.85</v>
       </c>
-      <c r="R44" s="2">
+      <c r="S44" s="2">
         <v>19528.7</v>
       </c>
-      <c r="S44" s="2">
+      <c r="T44" s="2">
         <v>33.15</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -4510,35 +4532,36 @@
         <v>32.78</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="2" t="s">
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M45" s="2">
+      <c r="N45" s="2">
         <v>8.66</v>
       </c>
-      <c r="N45" s="2">
+      <c r="O45" s="2">
         <v>2.97</v>
       </c>
-      <c r="O45" s="2">
+      <c r="P45" s="2">
         <v>8.2200000000000006</v>
       </c>
-      <c r="P45" s="2">
+      <c r="Q45" s="2">
         <v>4.99</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="R45" s="2">
         <v>15.54</v>
       </c>
-      <c r="R45" s="2">
+      <c r="S45" s="2">
         <v>8.19</v>
       </c>
-      <c r="S45" s="2">
+      <c r="T45" s="2">
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -4567,35 +4590,36 @@
         <v>32.630000000000003</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="2"/>
+      <c r="L46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M46" s="2">
+      <c r="N46" s="2">
         <v>90.83</v>
       </c>
-      <c r="N46" s="2">
+      <c r="O46" s="2">
         <v>33.42</v>
       </c>
-      <c r="O46" s="2">
+      <c r="P46" s="2">
         <v>83.81</v>
       </c>
-      <c r="P46" s="2">
+      <c r="Q46" s="2">
         <v>49.37</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="R46" s="2">
         <v>170.76</v>
       </c>
-      <c r="R46" s="2">
+      <c r="S46" s="2">
         <v>85.72</v>
       </c>
-      <c r="S46" s="2">
+      <c r="T46" s="2">
         <v>36.79</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -4624,42 +4648,43 @@
         <v>8</v>
       </c>
       <c r="J47" s="2"/>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="2"/>
+      <c r="L47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="30">
         <v>3980.65</v>
       </c>
       <c r="D48" s="2">
@@ -4674,42 +4699,42 @@
       <c r="G48" s="2">
         <v>7405.04</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="30">
         <v>3690.89</v>
       </c>
       <c r="I48" s="2">
         <v>38.86</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M48" s="2">
+      <c r="N48" s="30">
         <v>3552.48</v>
       </c>
-      <c r="N48" s="2">
+      <c r="O48" s="2">
         <v>1506.88</v>
       </c>
-      <c r="O48" s="2">
+      <c r="P48" s="2">
         <v>2977.74</v>
       </c>
-      <c r="P48" s="2">
+      <c r="Q48" s="2">
         <v>1100.1099999999999</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="R48" s="2">
         <v>7189.69</v>
       </c>
-      <c r="R48" s="2">
+      <c r="S48" s="30">
         <v>3256.5</v>
       </c>
-      <c r="S48" s="2">
+      <c r="T48" s="2">
         <v>42.42</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>17</v>
       </c>
@@ -4738,35 +4763,36 @@
         <v>37.619999999999997</v>
       </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="2"/>
+      <c r="L49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M49" s="2">
+      <c r="N49" s="2">
         <v>3.12</v>
       </c>
-      <c r="N49" s="2">
+      <c r="O49" s="2">
         <v>1.17</v>
       </c>
-      <c r="O49" s="2">
+      <c r="P49" s="2">
         <v>3</v>
       </c>
-      <c r="P49" s="2">
+      <c r="Q49" s="2">
         <v>1.5</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="R49" s="2">
         <v>6</v>
       </c>
-      <c r="R49" s="2">
+      <c r="S49" s="2">
         <v>2.9</v>
       </c>
-      <c r="S49" s="2">
+      <c r="T49" s="2">
         <v>37.5</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
@@ -4794,35 +4820,35 @@
       <c r="I50" s="2">
         <v>15.09</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M50" s="2">
+      <c r="N50" s="2">
         <v>8.19</v>
       </c>
-      <c r="N50" s="2">
+      <c r="O50" s="2">
         <v>1.2</v>
       </c>
-      <c r="O50" s="2">
+      <c r="P50" s="2">
         <v>8.06</v>
       </c>
-      <c r="P50" s="2">
+      <c r="Q50" s="2">
         <v>6.43</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="R50" s="2">
         <v>11.09</v>
       </c>
-      <c r="R50" s="2">
+      <c r="S50" s="2">
         <v>8.11</v>
       </c>
-      <c r="S50" s="2">
+      <c r="T50" s="2">
         <v>14.65</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
@@ -4850,35 +4876,35 @@
       <c r="I51" s="2">
         <v>37.200000000000003</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M51" s="2">
+      <c r="N51" s="2">
         <v>22726.27</v>
       </c>
-      <c r="N51" s="2">
+      <c r="O51" s="2">
         <v>10045.92</v>
       </c>
-      <c r="O51" s="2">
+      <c r="P51" s="2">
         <v>21025.35</v>
       </c>
-      <c r="P51" s="2">
+      <c r="Q51" s="2">
         <v>6837.05</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="R51" s="2">
         <v>45928.71</v>
       </c>
-      <c r="R51" s="2">
+      <c r="S51" s="2">
         <v>20530.400000000001</v>
       </c>
-      <c r="S51" s="2">
+      <c r="T51" s="2">
         <v>44.2</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>17</v>
       </c>
@@ -4906,35 +4932,35 @@
       <c r="I52" s="2">
         <v>35.32</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="M52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M52" s="2">
+      <c r="N52" s="2">
         <v>24038.36</v>
       </c>
-      <c r="N52" s="2">
+      <c r="O52" s="2">
         <v>10082.030000000001</v>
       </c>
-      <c r="O52" s="2">
+      <c r="P52" s="2">
         <v>22759.17</v>
       </c>
-      <c r="P52" s="2">
+      <c r="Q52" s="2">
         <v>8272.75</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="R52" s="2">
         <v>47660.24</v>
       </c>
-      <c r="R52" s="2">
+      <c r="S52" s="2">
         <v>21987.200000000001</v>
       </c>
-      <c r="S52" s="2">
+      <c r="T52" s="2">
         <v>41.94</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>17</v>
       </c>
@@ -4962,35 +4988,35 @@
       <c r="I53" s="2">
         <v>36.56</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="M53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M53" s="2">
+      <c r="N53" s="2">
         <v>8.0299999999999994</v>
       </c>
-      <c r="N53" s="2">
+      <c r="O53" s="2">
         <v>3.9</v>
       </c>
-      <c r="O53" s="2">
+      <c r="P53" s="2">
         <v>7.03</v>
       </c>
-      <c r="P53" s="2">
+      <c r="Q53" s="2">
         <v>3.36</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="R53" s="2">
         <v>19.34</v>
       </c>
-      <c r="R53" s="2">
+      <c r="S53" s="2">
         <v>7.28</v>
       </c>
-      <c r="S53" s="2">
+      <c r="T53" s="2">
         <v>48.57</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
@@ -5018,64 +5044,65 @@
       <c r="I54" s="2">
         <v>40.020000000000003</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="M54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M54" s="2">
+      <c r="N54" s="2">
         <v>97.47</v>
       </c>
-      <c r="N54" s="2">
+      <c r="O54" s="2">
         <v>60.86</v>
       </c>
-      <c r="O54" s="2">
+      <c r="P54" s="2">
         <v>83.03</v>
       </c>
-      <c r="P54" s="2">
+      <c r="Q54" s="2">
         <v>40.89</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="R54" s="2">
         <v>309.52999999999997</v>
       </c>
-      <c r="R54" s="2">
+      <c r="S54" s="2">
         <v>85.11</v>
       </c>
-      <c r="S54" s="2">
+      <c r="T54" s="2">
         <v>62.44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U7:V7"/>
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="A38:I38"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="K19:S19"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="L19:T19"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R7:R8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5575,17 +5602,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Code/inae_PK_2022.11.23.xlsx
+++ b/Code/inae_PK_2022.11.23.xlsx
@@ -13,8 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="NCA table" sheetId="1" r:id="rId1"/>
-    <sheet name="인애(RTIME)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="인애(RTIME)" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk117071529" localSheetId="1">Sheet1!$A$4</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="80">
   <si>
     <t>Period</t>
   </si>
@@ -1215,6 +1219,156 @@
   <si>
     <t xml:space="preserve"> ± </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90% CI</t>
+  </si>
+  <si>
+    <t>A (N = ##)</t>
+  </si>
+  <si>
+    <r>
+      <t>AUC</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>last</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(hr*ng/mL)</t>
+    </r>
+  </si>
+  <si>
+    <t>(0.9160-1.1589 )</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">max </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(ng/mL)</t>
+    </r>
+  </si>
+  <si>
+    <t>(0.8431-1.1330 )</t>
+  </si>
+  <si>
+    <t>B (N = ##)</t>
+  </si>
+  <si>
+    <t>(0.9191-0.9849)</t>
+  </si>
+  <si>
+    <t>(0.8254-1.1063 )</t>
+  </si>
+  <si>
+    <r>
+      <t>AUC</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>last</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (hr*ng/mL)</t>
+    </r>
+  </si>
+  <si>
+    <t>(0.6541-0.8928 )</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (ng/mL)</t>
+    </r>
+  </si>
+  <si>
+    <t>(0.5419-0.7871 )</t>
+  </si>
+  <si>
+    <t>C (N = ##)</t>
+  </si>
+  <si>
+    <t>(0.9675-1.2974 )</t>
+  </si>
+  <si>
+    <t>(0.9333-1.2346 )</t>
+  </si>
+  <si>
+    <t>(0.8446-1.1445 )</t>
+  </si>
+  <si>
+    <t>(0.9103-1.1596 )</t>
   </si>
 </sst>
 </file>
@@ -1223,9 +1377,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,8 +1537,43 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1427,8 +1616,19 @@
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1484,6 +1684,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1491,7 +1729,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,13 +1777,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1555,22 +1801,59 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2534,7 +2817,7 @@
   <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:V12"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,17 +2828,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -2597,10 +2880,10 @@
       <c r="T2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="26"/>
+      <c r="V2" s="22"/>
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -2610,7 +2893,7 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="19">
         <v>172.57</v>
       </c>
       <c r="D3" s="2">
@@ -2625,16 +2908,16 @@
       <c r="G3" s="2">
         <v>270.12</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="19">
         <v>168.48</v>
       </c>
       <c r="I3" s="2">
         <v>23.09</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="23" t="s">
         <v>29</v>
       </c>
       <c r="S3" s="10" t="s">
@@ -2643,10 +2926,10 @@
       <c r="T3" s="10">
         <v>1.0303</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="20"/>
+      <c r="V3" s="23"/>
       <c r="W3" s="6" t="s">
         <v>32</v>
       </c>
@@ -2679,18 +2962,18 @@
       <c r="I4" s="2">
         <v>57.89</v>
       </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
       <c r="S4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="T4" s="10">
         <v>0.97740000000000005</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="U4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="20"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="6" t="s">
         <v>35</v>
       </c>
@@ -2723,10 +3006,10 @@
       <c r="I5" s="2">
         <v>22.07</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="23" t="s">
         <v>37</v>
       </c>
       <c r="S5" s="10" t="s">
@@ -2735,10 +3018,10 @@
       <c r="T5" s="10">
         <v>0.95140000000000002</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="20"/>
+      <c r="V5" s="23"/>
       <c r="W5" s="6" t="s">
         <v>39</v>
       </c>
@@ -2771,18 +3054,18 @@
       <c r="I6" s="2">
         <v>22.12</v>
       </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
       <c r="S6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="T6" s="11">
         <v>0.9556</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="20"/>
+      <c r="V6" s="23"/>
       <c r="W6" s="6" t="s">
         <v>41</v>
       </c>
@@ -2815,8 +3098,8 @@
       <c r="I7" s="2">
         <v>21.2</v>
       </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="20" t="s">
+      <c r="Q7" s="28"/>
+      <c r="R7" s="23" t="s">
         <v>42</v>
       </c>
       <c r="S7" s="10" t="s">
@@ -2825,10 +3108,10 @@
       <c r="T7" s="12">
         <v>0.76419999999999999</v>
       </c>
-      <c r="U7" s="22" t="s">
+      <c r="U7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="V7" s="22"/>
+      <c r="V7" s="24"/>
       <c r="W7" s="7" t="s">
         <v>44</v>
       </c>
@@ -2861,18 +3144,18 @@
       <c r="I8" s="2">
         <v>19.850000000000001</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
       <c r="S8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="T8" s="12">
         <v>0.65310000000000001</v>
       </c>
-      <c r="U8" s="22" t="s">
+      <c r="U8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="V8" s="22"/>
+      <c r="V8" s="24"/>
       <c r="W8" s="7" t="s">
         <v>46</v>
       </c>
@@ -2905,10 +3188,10 @@
       <c r="I9" s="2">
         <v>31.65</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="23" t="s">
         <v>29</v>
       </c>
       <c r="S9" s="10" t="s">
@@ -2953,18 +3236,18 @@
       <c r="I10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
       <c r="S10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="T10" s="11">
         <v>1.0733999999999999</v>
       </c>
-      <c r="U10" s="20" t="s">
+      <c r="U10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="V10" s="20"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="6" t="s">
         <v>49</v>
       </c>
@@ -2976,7 +3259,7 @@
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="19">
         <v>164.56</v>
       </c>
       <c r="D11" s="2">
@@ -2991,14 +3274,14 @@
       <c r="G11" s="2">
         <v>209.21</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="19">
         <v>161</v>
       </c>
       <c r="I11" s="2">
         <v>19.940000000000001</v>
       </c>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="20" t="s">
+      <c r="Q11" s="28"/>
+      <c r="R11" s="23" t="s">
         <v>42</v>
       </c>
       <c r="S11" s="10" t="s">
@@ -3007,10 +3290,10 @@
       <c r="T11" s="11">
         <v>0.98319999999999996</v>
       </c>
-      <c r="U11" s="20" t="s">
+      <c r="U11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="V11" s="20"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="6" t="s">
         <v>52</v>
       </c>
@@ -3048,18 +3331,18 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
       <c r="S12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="T12" s="11">
         <v>1.0274000000000001</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="23"/>
       <c r="W12" s="6" t="s">
         <v>54</v>
       </c>
@@ -3210,28 +3493,28 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="L19" s="23" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="L19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3296,7 +3579,7 @@
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="19">
         <v>995.32</v>
       </c>
       <c r="D21" s="2">
@@ -3311,7 +3594,7 @@
       <c r="G21" s="2">
         <v>1489.96</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="19">
         <v>957.21</v>
       </c>
       <c r="I21" s="2">
@@ -3326,7 +3609,7 @@
       <c r="M21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="19">
         <v>720.11</v>
       </c>
       <c r="O21" s="2">
@@ -3341,7 +3624,7 @@
       <c r="R21" s="2">
         <v>1233.72</v>
       </c>
-      <c r="S21" s="30">
+      <c r="S21" s="19">
         <v>691.49</v>
       </c>
       <c r="T21" s="2">
@@ -3747,7 +4030,7 @@
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="19">
         <v>669.68</v>
       </c>
       <c r="D29" s="2">
@@ -3762,7 +4045,7 @@
       <c r="G29" s="2">
         <v>1014.69</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="19">
         <v>625.19000000000005</v>
       </c>
       <c r="I29" s="2">
@@ -3774,7 +4057,7 @@
       <c r="M29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="30">
+      <c r="N29" s="19">
         <v>741.76</v>
       </c>
       <c r="O29" s="2">
@@ -3789,7 +4072,7 @@
       <c r="R29" s="2">
         <v>1261.03</v>
       </c>
-      <c r="S29" s="30">
+      <c r="S29" s="19">
         <v>710.46</v>
       </c>
       <c r="T29" s="2">
@@ -4133,28 +4416,28 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="L38" s="24" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="L38" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -4221,7 +4504,7 @@
       <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="19">
         <v>3950.34</v>
       </c>
       <c r="D40" s="2">
@@ -4236,7 +4519,7 @@
       <c r="G40" s="2">
         <v>6667.79</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="19">
         <v>3776.37</v>
       </c>
       <c r="I40" s="2">
@@ -4249,7 +4532,7 @@
       <c r="M40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N40" s="30">
+      <c r="N40" s="19">
         <v>3237.19</v>
       </c>
       <c r="O40" s="2">
@@ -4264,7 +4547,7 @@
       <c r="R40" s="2">
         <v>5334.44</v>
       </c>
-      <c r="S40" s="30">
+      <c r="S40" s="19">
         <v>3033.7</v>
       </c>
       <c r="T40" s="2">
@@ -4284,19 +4567,19 @@
       <c r="D41" s="2">
         <v>0.96</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="20">
         <v>2.02</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="20">
         <v>1</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="20">
         <v>4</v>
       </c>
-      <c r="H41" s="31">
+      <c r="H41" s="20">
         <v>2.5499999999999998</v>
       </c>
-      <c r="I41" s="31">
+      <c r="I41" s="20">
         <v>35.29</v>
       </c>
       <c r="J41" s="2"/>
@@ -4684,7 +4967,7 @@
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="19">
         <v>3980.65</v>
       </c>
       <c r="D48" s="2">
@@ -4699,7 +4982,7 @@
       <c r="G48" s="2">
         <v>7405.04</v>
       </c>
-      <c r="H48" s="30">
+      <c r="H48" s="19">
         <v>3690.89</v>
       </c>
       <c r="I48" s="2">
@@ -4712,7 +4995,7 @@
       <c r="M48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="30">
+      <c r="N48" s="19">
         <v>3552.48</v>
       </c>
       <c r="O48" s="2">
@@ -4727,7 +5010,7 @@
       <c r="R48" s="2">
         <v>7189.69</v>
       </c>
-      <c r="S48" s="30">
+      <c r="S48" s="19">
         <v>3256.5</v>
       </c>
       <c r="T48" s="2">
@@ -5074,11 +5357,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R7:R8"/>
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="A19:I19"/>
@@ -5092,12 +5376,11 @@
     <mergeCell ref="Q9:Q12"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="R11:R12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="Q5:Q8"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U5:V5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5107,6 +5390,204 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1.0303</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.9556</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.65310000000000001</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1.1204000000000001</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="37">
+        <v>1.0733999999999999</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="35">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1.0274000000000001</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5282,11 +5763,11 @@
       <c r="G12" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -5442,11 +5923,11 @@
       <c r="G25" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
